--- a/ModuleComparison.xlsx
+++ b/ModuleComparison.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markmcfate/ISLE-Documentation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFA0D1C-97CB-EA43-AA11-D73ABEE01B6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2560" windowWidth="28040" windowHeight="17440" xr2:uid="{88ED7122-1FF7-AC4C-9C0C-44CB2F4F6DDB}"/>
+    <workbookView xWindow="3400" yWindow="1040" windowWidth="22280" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="DG" sheetId="1" r:id="rId1"/>
@@ -22,8 +16,11 @@
     <definedName name="dg7.modules.list_1" localSheetId="0">DG!$A$2:$C$249</definedName>
     <definedName name="isle.modules.list_1" localSheetId="1">ISLE!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -32,8 +29,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{F75DFD2B-2028-4F42-8D6F-65AA2D44B67E}" name="dg7.modules.list" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="dg7.modules.list" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/markmcfate/ISLE-Documentation/dg7.modules.list.csv" comma="1">
       <textFields count="3">
         <textField/>
@@ -46,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="424">
   <si>
     <t>Name</t>
   </si>
@@ -1315,18 +1312,22 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Provied by OH Solution Pack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1386,7 +1387,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="dg7.modules.list_1" connectionId="1" xr16:uid="{BE5E9954-2687-D348-B479-C57F51AA9E89}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dg7.modules.list_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1432,7 +1433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1484,7 +1485,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1678,22 +1679,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B87D45-4D11-4D4B-AE9D-0443BC085F69}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D253" sqref="D253"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="68.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -1704,7 +1705,7 @@
     <col min="7" max="7" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1722,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16" hidden="1">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -1736,7 +1737,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16" hidden="1">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1748,7 +1749,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16" hidden="1">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -1760,7 +1761,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" hidden="1">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -1772,7 +1773,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16" hidden="1">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -1787,7 +1788,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16" hidden="1">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -1799,7 +1800,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16" hidden="1">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -1814,7 +1815,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16" hidden="1">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -1829,7 +1830,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16" hidden="1">
       <c r="A10" t="s">
         <v>196</v>
       </c>
@@ -1844,7 +1845,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16" hidden="1">
       <c r="A11" t="s">
         <v>134</v>
       </c>
@@ -1859,7 +1860,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16" hidden="1">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -1874,7 +1875,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16" hidden="1">
       <c r="A13" t="s">
         <v>267</v>
       </c>
@@ -1886,7 +1887,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16" hidden="1">
       <c r="A14" t="s">
         <v>268</v>
       </c>
@@ -1898,7 +1899,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16" hidden="1">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -1913,7 +1914,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16" hidden="1">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -1928,7 +1929,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16" hidden="1">
       <c r="A17" t="s">
         <v>296</v>
       </c>
@@ -1943,7 +1944,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16" hidden="1">
       <c r="A18" t="s">
         <v>344</v>
       </c>
@@ -1958,7 +1959,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="16" hidden="1">
       <c r="A19" t="s">
         <v>345</v>
       </c>
@@ -1973,7 +1974,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16" hidden="1">
       <c r="A20" t="s">
         <v>279</v>
       </c>
@@ -1988,7 +1989,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16" hidden="1">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2003,7 +2004,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16" hidden="1">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2018,7 +2019,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16" hidden="1">
       <c r="A23" t="s">
         <v>289</v>
       </c>
@@ -2033,7 +2034,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16" hidden="1">
       <c r="A24" t="s">
         <v>294</v>
       </c>
@@ -2048,7 +2049,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16" hidden="1">
       <c r="A25" t="s">
         <v>346</v>
       </c>
@@ -2063,7 +2064,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -2089,7 +2090,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>248</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>250</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>342</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>Disabled</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>318</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>253</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2401,7 +2402,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>186</v>
       </c>
@@ -2428,7 +2429,7 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2455,7 +2456,7 @@
       </c>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2482,7 +2483,7 @@
       </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>Not installed</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>Not installed</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>Not installed</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>Not installed</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>343</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>239</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>108</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>258</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>260</v>
       </c>
@@ -2847,7 +2848,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2874,7 +2875,7 @@
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -2901,7 +2902,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>261</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>262</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>295</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>308</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>Not installed</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>310</v>
       </c>
@@ -3057,7 +3058,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>312</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>314</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>265</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>266</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>Not installed</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>237</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>157</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -3266,7 +3267,7 @@
       </c>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>160</v>
       </c>
@@ -3292,7 +3293,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>191</v>
       </c>
@@ -3318,7 +3319,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>162</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>192</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -3445,7 +3446,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>123</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>168</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>Not installed</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>198</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -3572,7 +3573,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>124</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>216</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -3676,7 +3677,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>315</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>201</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>202</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>219</v>
       </c>
@@ -3780,7 +3781,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>172</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>174</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>175</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>137</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>178</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -3936,7 +3937,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>206</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>207</v>
       </c>
@@ -3986,7 +3987,7 @@
       </c>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>148</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>138</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>139</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>149</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>180</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>181</v>
       </c>
@@ -4143,7 +4144,7 @@
       </c>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>140</v>
       </c>
@@ -4170,7 +4171,7 @@
       </c>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>141</v>
       </c>
@@ -4193,7 +4194,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>209</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>210</v>
       </c>
@@ -4245,7 +4246,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>142</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>211</v>
       </c>
@@ -4297,7 +4298,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>143</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>212</v>
       </c>
@@ -4350,7 +4351,7 @@
       </c>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>144</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>320</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>272</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>221</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>224</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>223</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>227</v>
       </c>
@@ -4532,7 +4533,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>228</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>229</v>
       </c>
@@ -4585,7 +4586,7 @@
       </c>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>230</v>
       </c>
@@ -4612,7 +4613,7 @@
       </c>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>231</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>232</v>
       </c>
@@ -4664,7 +4665,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>274</v>
       </c>
@@ -4690,7 +4691,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>113</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>Not installed</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>275</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>233</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>276</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>297</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>241</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>246</v>
       </c>
@@ -4872,7 +4873,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -4898,7 +4899,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>278</v>
       </c>
@@ -4924,7 +4925,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>145</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>306</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>280</v>
       </c>
@@ -5002,7 +5003,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>146</v>
       </c>
@@ -5029,7 +5030,7 @@
       </c>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>281</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>235</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -5107,7 +5108,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>299</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>301</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>285</v>
       </c>
@@ -5185,7 +5186,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>286</v>
       </c>
@@ -5212,7 +5213,7 @@
       </c>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>290</v>
       </c>
@@ -5239,7 +5240,7 @@
       </c>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>298</v>
       </c>
@@ -5273,7 +5274,7 @@
         <v>11</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E149" s="4" t="str">
         <f>IFERROR(VLOOKUP($A149,ISLE!$A$2:$A$232,1,FALSE),"-")</f>
@@ -5288,7 +5289,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>293</v>
       </c>
@@ -5314,7 +5315,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>322</v>
       </c>
@@ -5341,7 +5342,7 @@
       </c>
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>324</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>325</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>Not installed</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>326</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>327</v>
       </c>
@@ -5445,7 +5446,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>330</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>Enabled</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="16" hidden="1">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -5486,7 +5487,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="16" hidden="1">
       <c r="A158" t="s">
         <v>249</v>
       </c>
@@ -5501,7 +5502,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="16" hidden="1">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -5516,7 +5517,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="16" hidden="1">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -5531,7 +5532,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="16" hidden="1">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -5546,7 +5547,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="16" hidden="1">
       <c r="A162" t="s">
         <v>151</v>
       </c>
@@ -5561,7 +5562,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="16" hidden="1">
       <c r="A163" t="s">
         <v>22</v>
       </c>
@@ -5576,7 +5577,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="16" hidden="1">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -5591,7 +5592,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="16" hidden="1">
       <c r="A165" t="s">
         <v>82</v>
       </c>
@@ -5606,7 +5607,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="16" hidden="1">
       <c r="A166" t="s">
         <v>101</v>
       </c>
@@ -5621,7 +5622,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="16" hidden="1">
       <c r="A167" t="s">
         <v>92</v>
       </c>
@@ -5636,7 +5637,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="16" hidden="1">
       <c r="A168" t="s">
         <v>93</v>
       </c>
@@ -5651,7 +5652,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="16" hidden="1">
       <c r="A169" t="s">
         <v>255</v>
       </c>
@@ -5663,7 +5664,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="16" hidden="1">
       <c r="A170" t="s">
         <v>256</v>
       </c>
@@ -5675,7 +5676,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="16" hidden="1">
       <c r="A171" t="s">
         <v>257</v>
       </c>
@@ -5687,7 +5688,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="16" hidden="1">
       <c r="A172" t="s">
         <v>153</v>
       </c>
@@ -5702,7 +5703,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="16" hidden="1">
       <c r="A173" t="s">
         <v>154</v>
       </c>
@@ -5717,7 +5718,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="16" hidden="1">
       <c r="A174" t="s">
         <v>240</v>
       </c>
@@ -5732,7 +5733,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="16" hidden="1">
       <c r="A175" t="s">
         <v>155</v>
       </c>
@@ -5747,7 +5748,7 @@
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="16" hidden="1">
       <c r="A176" t="s">
         <v>156</v>
       </c>
@@ -5762,7 +5763,7 @@
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" ht="16" hidden="1">
       <c r="A177" t="s">
         <v>102</v>
       </c>
@@ -5777,7 +5778,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="16" hidden="1">
       <c r="A178" t="s">
         <v>105</v>
       </c>
@@ -5792,7 +5793,7 @@
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="16" hidden="1">
       <c r="A179" t="s">
         <v>106</v>
       </c>
@@ -5807,7 +5808,7 @@
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="16" hidden="1">
       <c r="A180" t="s">
         <v>107</v>
       </c>
@@ -5822,7 +5823,7 @@
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="16" hidden="1">
       <c r="A181" t="s">
         <v>125</v>
       </c>
@@ -5837,7 +5838,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="16" hidden="1">
       <c r="A182" t="s">
         <v>126</v>
       </c>
@@ -5852,7 +5853,7 @@
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="16" hidden="1">
       <c r="A183" t="s">
         <v>127</v>
       </c>
@@ -5867,7 +5868,7 @@
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" ht="16" hidden="1">
       <c r="A184" t="s">
         <v>263</v>
       </c>
@@ -5882,7 +5883,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="16" hidden="1">
       <c r="A185" t="s">
         <v>264</v>
       </c>
@@ -5897,7 +5898,7 @@
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="16" hidden="1">
       <c r="A186" t="s">
         <v>128</v>
       </c>
@@ -5912,7 +5913,7 @@
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" ht="16" hidden="1">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -5927,7 +5928,7 @@
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" ht="16" hidden="1">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -5942,7 +5943,7 @@
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="16" hidden="1">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -5957,7 +5958,7 @@
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="16" hidden="1">
       <c r="A190" t="s">
         <v>130</v>
       </c>
@@ -5972,7 +5973,7 @@
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" ht="16" hidden="1">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -5987,7 +5988,7 @@
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="16" hidden="1">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -6002,7 +6003,7 @@
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="16" hidden="1">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -6017,7 +6018,7 @@
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="16" hidden="1">
       <c r="A194" t="s">
         <v>32</v>
       </c>
@@ -6032,7 +6033,7 @@
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="16" hidden="1">
       <c r="A195" t="s">
         <v>164</v>
       </c>
@@ -6047,7 +6048,7 @@
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="16" hidden="1">
       <c r="A196" t="s">
         <v>165</v>
       </c>
@@ -6062,7 +6063,7 @@
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="16" hidden="1">
       <c r="A197" t="s">
         <v>166</v>
       </c>
@@ -6077,7 +6078,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="16" hidden="1">
       <c r="A198" t="s">
         <v>133</v>
       </c>
@@ -6089,7 +6090,7 @@
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="16" hidden="1">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -6105,7 +6106,7 @@
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="16" hidden="1">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -6117,7 +6118,7 @@
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="16" hidden="1">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -6132,7 +6133,7 @@
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="16" hidden="1">
       <c r="A202" t="s">
         <v>171</v>
       </c>
@@ -6147,7 +6148,7 @@
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="16" hidden="1">
       <c r="A203" t="s">
         <v>135</v>
       </c>
@@ -6159,7 +6160,7 @@
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="16" hidden="1">
       <c r="A204" t="s">
         <v>136</v>
       </c>
@@ -6171,7 +6172,7 @@
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="16" hidden="1">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -6186,7 +6187,7 @@
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="16" hidden="1">
       <c r="A206" t="s">
         <v>220</v>
       </c>
@@ -6201,7 +6202,7 @@
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="16" hidden="1">
       <c r="A207" t="s">
         <v>176</v>
       </c>
@@ -6216,7 +6217,7 @@
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="16" hidden="1">
       <c r="A208" t="s">
         <v>204</v>
       </c>
@@ -6231,7 +6232,7 @@
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="16" hidden="1">
       <c r="A209" t="s">
         <v>177</v>
       </c>
@@ -6246,7 +6247,7 @@
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="16" hidden="1">
       <c r="A210" t="s">
         <v>179</v>
       </c>
@@ -6261,7 +6262,7 @@
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="16" hidden="1">
       <c r="A211" t="s">
         <v>205</v>
       </c>
@@ -6276,7 +6277,7 @@
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="16" hidden="1">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -6291,7 +6292,7 @@
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="16" hidden="1">
       <c r="A213" t="s">
         <v>271</v>
       </c>
@@ -6306,7 +6307,7 @@
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="16" hidden="1">
       <c r="A214" t="s">
         <v>225</v>
       </c>
@@ -6321,7 +6322,7 @@
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="16" hidden="1">
       <c r="A215" t="s">
         <v>226</v>
       </c>
@@ -6336,7 +6337,7 @@
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" ht="16" hidden="1">
       <c r="A216" t="s">
         <v>115</v>
       </c>
@@ -6351,7 +6352,7 @@
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="16" hidden="1">
       <c r="A217" t="s">
         <v>244</v>
       </c>
@@ -6366,7 +6367,7 @@
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="16" hidden="1">
       <c r="A218" t="s">
         <v>243</v>
       </c>
@@ -6381,7 +6382,7 @@
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="16" hidden="1">
       <c r="A219" t="s">
         <v>245</v>
       </c>
@@ -6396,7 +6397,7 @@
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="16" hidden="1">
       <c r="A220" t="s">
         <v>247</v>
       </c>
@@ -6411,7 +6412,7 @@
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="16" hidden="1">
       <c r="A221" t="s">
         <v>94</v>
       </c>
@@ -6426,7 +6427,7 @@
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="16" hidden="1">
       <c r="A222" t="s">
         <v>24</v>
       </c>
@@ -6441,7 +6442,7 @@
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="16" hidden="1">
       <c r="A223" t="s">
         <v>96</v>
       </c>
@@ -6453,7 +6454,7 @@
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="16" hidden="1">
       <c r="A224" t="s">
         <v>182</v>
       </c>
@@ -6468,7 +6469,7 @@
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="16" hidden="1">
       <c r="A225" t="s">
         <v>183</v>
       </c>
@@ -6483,7 +6484,7 @@
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="16" hidden="1">
       <c r="A226" t="s">
         <v>300</v>
       </c>
@@ -6498,7 +6499,7 @@
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="16" hidden="1">
       <c r="A227" t="s">
         <v>302</v>
       </c>
@@ -6513,7 +6514,7 @@
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="16" hidden="1">
       <c r="A228" t="s">
         <v>303</v>
       </c>
@@ -6528,7 +6529,7 @@
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="16" hidden="1">
       <c r="A229" t="s">
         <v>304</v>
       </c>
@@ -6544,7 +6545,7 @@
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="16" hidden="1">
       <c r="A230" t="s">
         <v>305</v>
       </c>
@@ -6559,7 +6560,7 @@
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="16" hidden="1">
       <c r="A231" t="s">
         <v>184</v>
       </c>
@@ -6574,7 +6575,7 @@
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="16" hidden="1">
       <c r="A232" t="s">
         <v>185</v>
       </c>
@@ -6589,7 +6590,7 @@
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="16" hidden="1">
       <c r="A233" t="s">
         <v>287</v>
       </c>
@@ -6604,7 +6605,7 @@
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="16" hidden="1">
       <c r="A234" t="s">
         <v>116</v>
       </c>
@@ -6619,7 +6620,7 @@
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="16" hidden="1">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -6634,7 +6635,7 @@
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="16" hidden="1">
       <c r="A236" t="s">
         <v>288</v>
       </c>
@@ -6649,7 +6650,7 @@
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="16" hidden="1">
       <c r="A237" t="s">
         <v>26</v>
       </c>
@@ -6664,7 +6665,7 @@
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="16" hidden="1">
       <c r="A238" t="s">
         <v>97</v>
       </c>
@@ -6679,7 +6680,7 @@
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="16" hidden="1">
       <c r="A239" t="s">
         <v>27</v>
       </c>
@@ -6694,7 +6695,7 @@
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="16" hidden="1">
       <c r="A240" t="s">
         <v>329</v>
       </c>
@@ -6709,7 +6710,7 @@
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="16" hidden="1">
       <c r="A241" t="s">
         <v>321</v>
       </c>
@@ -6724,7 +6725,7 @@
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="16" hidden="1">
       <c r="A242" t="s">
         <v>331</v>
       </c>
@@ -6739,7 +6740,7 @@
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="16" hidden="1">
       <c r="A243" t="s">
         <v>332</v>
       </c>
@@ -6754,7 +6755,7 @@
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="16" hidden="1">
       <c r="A244" t="s">
         <v>333</v>
       </c>
@@ -6769,7 +6770,7 @@
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="16" hidden="1">
       <c r="A245" t="s">
         <v>334</v>
       </c>
@@ -6784,7 +6785,7 @@
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="16" hidden="1">
       <c r="A246" t="s">
         <v>335</v>
       </c>
@@ -6799,7 +6800,7 @@
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="16" hidden="1">
       <c r="A247" t="s">
         <v>336</v>
       </c>
@@ -6814,7 +6815,7 @@
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="16" hidden="1">
       <c r="A248" t="s">
         <v>337</v>
       </c>
@@ -6829,7 +6830,7 @@
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" ht="16" hidden="1">
       <c r="A249" t="s">
         <v>215</v>
       </c>
@@ -6844,11 +6845,11 @@
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1">
       <c r="A263" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C249" xr:uid="{6C919AC1-16E5-A844-941E-AD67360B7F15}">
+  <autoFilter ref="A1:C249">
     <filterColumn colId="2">
       <filters>
         <filter val="Enabled"/>
@@ -6859,25 +6860,30 @@
     <sortCondition ref="C2:C249"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F199E57C-DBAE-394B-B0F6-1482FDA91BC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D232"/>
   <sheetViews>
     <sheetView topLeftCell="A218" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="68.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6888,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -6899,7 +6905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>349</v>
       </c>
@@ -6910,7 +6916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>351</v>
       </c>
@@ -6921,7 +6927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>352</v>
       </c>
@@ -6932,7 +6938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -6943,7 +6949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>338</v>
       </c>
@@ -6954,7 +6960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>150</v>
       </c>
@@ -6965,7 +6971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -6976,7 +6982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -6987,7 +6993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -6998,7 +7004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>342</v>
       </c>
@@ -7009,7 +7015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -7020,7 +7026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -7031,7 +7037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -7042,7 +7048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -7053,7 +7059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>151</v>
       </c>
@@ -7064,7 +7070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>152</v>
       </c>
@@ -7075,7 +7081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -7086,7 +7092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>253</v>
       </c>
@@ -7097,7 +7103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -7108,7 +7114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>365</v>
       </c>
@@ -7119,7 +7125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -7130,7 +7136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -7141,7 +7147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -7152,7 +7158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>186</v>
       </c>
@@ -7163,7 +7169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -7174,7 +7180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -7185,7 +7191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -7196,7 +7202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
@@ -7207,7 +7213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>78</v>
       </c>
@@ -7218,7 +7224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>80</v>
       </c>
@@ -7229,7 +7235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>81</v>
       </c>
@@ -7240,7 +7246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>82</v>
       </c>
@@ -7251,7 +7257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>101</v>
       </c>
@@ -7262,7 +7268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>353</v>
       </c>
@@ -7273,7 +7279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>354</v>
       </c>
@@ -7284,7 +7290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>355</v>
       </c>
@@ -7295,7 +7301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -7306,7 +7312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>84</v>
       </c>
@@ -7317,7 +7323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>85</v>
       </c>
@@ -7328,7 +7334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>86</v>
       </c>
@@ -7339,7 +7345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
@@ -7350,7 +7356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>90</v>
       </c>
@@ -7361,7 +7367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -7372,7 +7378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>93</v>
       </c>
@@ -7383,7 +7389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>99</v>
       </c>
@@ -7393,7 +7399,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>343</v>
       </c>
@@ -7404,7 +7410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>153</v>
       </c>
@@ -7415,7 +7421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>154</v>
       </c>
@@ -7426,7 +7432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>155</v>
       </c>
@@ -7437,7 +7443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>156</v>
       </c>
@@ -7448,7 +7454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>258</v>
       </c>
@@ -7459,7 +7465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>362</v>
       </c>
@@ -7470,7 +7476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>363</v>
       </c>
@@ -7481,7 +7487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>260</v>
       </c>
@@ -7492,7 +7498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>384</v>
       </c>
@@ -7503,7 +7509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
         <v>386</v>
       </c>
@@ -7514,7 +7520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>387</v>
       </c>
@@ -7525,7 +7531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
         <v>358</v>
       </c>
@@ -7536,7 +7542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
         <v>359</v>
       </c>
@@ -7547,7 +7553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
         <v>360</v>
       </c>
@@ -7558,7 +7564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
         <v>361</v>
       </c>
@@ -7569,7 +7575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
         <v>102</v>
       </c>
@@ -7580,7 +7586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>399</v>
       </c>
@@ -7591,7 +7597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>45</v>
       </c>
@@ -7602,7 +7608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
         <v>46</v>
       </c>
@@ -7613,7 +7619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
         <v>47</v>
       </c>
@@ -7624,7 +7630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
         <v>48</v>
       </c>
@@ -7635,7 +7641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
         <v>49</v>
       </c>
@@ -7646,7 +7652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
         <v>50</v>
       </c>
@@ -7657,7 +7663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
         <v>339</v>
       </c>
@@ -7668,7 +7674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
         <v>308</v>
       </c>
@@ -7679,7 +7685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
         <v>51</v>
       </c>
@@ -7690,7 +7696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
         <v>52</v>
       </c>
@@ -7701,7 +7707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
         <v>265</v>
       </c>
@@ -7712,7 +7718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
         <v>266</v>
       </c>
@@ -7723,7 +7729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
         <v>129</v>
       </c>
@@ -7734,7 +7740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
         <v>371</v>
       </c>
@@ -7744,7 +7750,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
         <v>157</v>
       </c>
@@ -7755,7 +7761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
         <v>372</v>
       </c>
@@ -7765,7 +7771,7 @@
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
         <v>187</v>
       </c>
@@ -7776,7 +7782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>158</v>
       </c>
@@ -7787,7 +7793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
         <v>160</v>
       </c>
@@ -7798,7 +7804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
         <v>188</v>
       </c>
@@ -7809,7 +7815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
         <v>189</v>
       </c>
@@ -7820,7 +7826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
         <v>190</v>
       </c>
@@ -7831,7 +7837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
         <v>161</v>
       </c>
@@ -7842,7 +7848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
         <v>130</v>
       </c>
@@ -7853,7 +7859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
         <v>162</v>
       </c>
@@ -7864,7 +7870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
         <v>192</v>
       </c>
@@ -7875,7 +7881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
         <v>193</v>
       </c>
@@ -7886,7 +7892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
         <v>194</v>
       </c>
@@ -7897,7 +7903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
         <v>195</v>
       </c>
@@ -7908,7 +7914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
         <v>163</v>
       </c>
@@ -7919,7 +7925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
         <v>164</v>
       </c>
@@ -7930,7 +7936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
         <v>165</v>
       </c>
@@ -7941,7 +7947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
         <v>166</v>
       </c>
@@ -7952,7 +7958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
         <v>167</v>
       </c>
@@ -7963,7 +7969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
         <v>133</v>
       </c>
@@ -7974,7 +7980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
         <v>168</v>
       </c>
@@ -7985,7 +7991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" s="2" t="s">
         <v>198</v>
       </c>
@@ -7996,7 +8002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
         <v>370</v>
       </c>
@@ -8007,7 +8013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
         <v>169</v>
       </c>
@@ -8018,7 +8024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" s="2" t="s">
         <v>199</v>
       </c>
@@ -8028,7 +8034,7 @@
       </c>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
         <v>216</v>
       </c>
@@ -8039,7 +8045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" s="2" t="s">
         <v>170</v>
       </c>
@@ -8050,7 +8056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
         <v>200</v>
       </c>
@@ -8061,7 +8067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
         <v>171</v>
       </c>
@@ -8072,7 +8078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
         <v>366</v>
       </c>
@@ -8083,7 +8089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
         <v>373</v>
       </c>
@@ -8093,7 +8099,7 @@
       </c>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
         <v>201</v>
       </c>
@@ -8104,7 +8110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" s="2" t="s">
         <v>202</v>
       </c>
@@ -8115,7 +8121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" s="2" t="s">
         <v>219</v>
       </c>
@@ -8126,7 +8132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" s="2" t="s">
         <v>174</v>
       </c>
@@ -8137,7 +8143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
         <v>203</v>
       </c>
@@ -8148,7 +8154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
         <v>175</v>
       </c>
@@ -8159,7 +8165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" s="2" t="s">
         <v>220</v>
       </c>
@@ -8170,7 +8176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
         <v>176</v>
       </c>
@@ -8181,7 +8187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" s="2" t="s">
         <v>367</v>
       </c>
@@ -8192,7 +8198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" s="2" t="s">
         <v>204</v>
       </c>
@@ -8203,7 +8209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" s="2" t="s">
         <v>177</v>
       </c>
@@ -8214,7 +8220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" s="2" t="s">
         <v>178</v>
       </c>
@@ -8225,7 +8231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" s="2" t="s">
         <v>179</v>
       </c>
@@ -8236,7 +8242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" s="2" t="s">
         <v>374</v>
       </c>
@@ -8246,7 +8252,7 @@
       </c>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" s="2" t="s">
         <v>205</v>
       </c>
@@ -8257,7 +8263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" s="2" t="s">
         <v>147</v>
       </c>
@@ -8268,7 +8274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8279,7 +8285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
         <v>138</v>
       </c>
@@ -8290,7 +8296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
         <v>139</v>
       </c>
@@ -8301,7 +8307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -8312,7 +8318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
         <v>208</v>
       </c>
@@ -8322,7 +8328,7 @@
       </c>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
         <v>267</v>
       </c>
@@ -8332,7 +8338,7 @@
       </c>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
         <v>268</v>
       </c>
@@ -8342,7 +8348,7 @@
       </c>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
         <v>375</v>
       </c>
@@ -8353,7 +8359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
         <v>180</v>
       </c>
@@ -8364,7 +8370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
         <v>377</v>
       </c>
@@ -8375,7 +8381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
         <v>181</v>
       </c>
@@ -8386,7 +8392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
         <v>376</v>
       </c>
@@ -8396,7 +8402,7 @@
       </c>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
         <v>140</v>
       </c>
@@ -8407,7 +8413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
         <v>141</v>
       </c>
@@ -8417,7 +8423,7 @@
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
         <v>209</v>
       </c>
@@ -8428,7 +8434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
         <v>210</v>
       </c>
@@ -8439,7 +8445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
         <v>142</v>
       </c>
@@ -8450,7 +8456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
         <v>211</v>
       </c>
@@ -8461,7 +8467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
         <v>143</v>
       </c>
@@ -8472,7 +8478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
         <v>212</v>
       </c>
@@ -8483,7 +8489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
         <v>144</v>
       </c>
@@ -8494,7 +8500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
         <v>213</v>
       </c>
@@ -8505,7 +8511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="2" t="s">
         <v>369</v>
       </c>
@@ -8516,7 +8522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
         <v>320</v>
       </c>
@@ -8527,7 +8533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="2" t="s">
         <v>274</v>
       </c>
@@ -8538,7 +8544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="2" t="s">
         <v>113</v>
       </c>
@@ -8549,7 +8555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
         <v>53</v>
       </c>
@@ -8560,7 +8566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
         <v>54</v>
       </c>
@@ -8571,7 +8577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
         <v>364</v>
       </c>
@@ -8582,7 +8588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
         <v>55</v>
       </c>
@@ -8593,7 +8599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
         <v>392</v>
       </c>
@@ -8604,7 +8610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
         <v>414</v>
       </c>
@@ -8615,7 +8621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="2" t="s">
         <v>56</v>
       </c>
@@ -8626,7 +8632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" s="2" t="s">
         <v>381</v>
       </c>
@@ -8637,7 +8643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" s="2" t="s">
         <v>356</v>
       </c>
@@ -8648,7 +8654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" s="2" t="s">
         <v>382</v>
       </c>
@@ -8659,7 +8665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
         <v>57</v>
       </c>
@@ -8670,7 +8676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="2" t="s">
         <v>145</v>
       </c>
@@ -8681,7 +8687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
         <v>58</v>
       </c>
@@ -8692,7 +8698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
         <v>59</v>
       </c>
@@ -8703,7 +8709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" s="2" t="s">
         <v>60</v>
       </c>
@@ -8714,7 +8720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" s="2" t="s">
         <v>24</v>
       </c>
@@ -8725,7 +8731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" s="2" t="s">
         <v>393</v>
       </c>
@@ -8736,7 +8742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" s="2" t="s">
         <v>394</v>
       </c>
@@ -8747,7 +8753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" s="2" t="s">
         <v>395</v>
       </c>
@@ -8758,7 +8764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" s="2" t="s">
         <v>378</v>
       </c>
@@ -8769,7 +8775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" s="2" t="s">
         <v>61</v>
       </c>
@@ -8780,7 +8786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" s="2" t="s">
         <v>280</v>
       </c>
@@ -8791,7 +8797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" s="2" t="s">
         <v>62</v>
       </c>
@@ -8802,7 +8808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
         <v>146</v>
       </c>
@@ -8813,7 +8819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
         <v>182</v>
       </c>
@@ -8824,7 +8830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
         <v>63</v>
       </c>
@@ -8835,7 +8841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" s="2" t="s">
         <v>183</v>
       </c>
@@ -8846,7 +8852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" s="2" t="s">
         <v>64</v>
       </c>
@@ -8857,7 +8863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" s="2" t="s">
         <v>184</v>
       </c>
@@ -8868,7 +8874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" s="2" t="s">
         <v>185</v>
       </c>
@@ -8879,7 +8885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
         <v>396</v>
       </c>
@@ -8890,7 +8896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="2" t="s">
         <v>397</v>
       </c>
@@ -8901,7 +8907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
         <v>380</v>
       </c>
@@ -8912,7 +8918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="2" t="s">
         <v>398</v>
       </c>
@@ -8923,7 +8929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
         <v>65</v>
       </c>
@@ -8934,7 +8940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
         <v>340</v>
       </c>
@@ -8945,7 +8951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="2" t="s">
         <v>66</v>
       </c>
@@ -8956,7 +8962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
         <v>383</v>
       </c>
@@ -8967,7 +8973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
         <v>389</v>
       </c>
@@ -8978,7 +8984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="2" t="s">
         <v>415</v>
       </c>
@@ -8989,7 +8995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="2" t="s">
         <v>341</v>
       </c>
@@ -9000,7 +9006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="2" t="s">
         <v>67</v>
       </c>
@@ -9011,7 +9017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
         <v>390</v>
       </c>
@@ -9022,7 +9028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
         <v>25</v>
       </c>
@@ -9033,7 +9039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
         <v>68</v>
       </c>
@@ -9044,7 +9050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
         <v>69</v>
       </c>
@@ -9055,7 +9061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
         <v>70</v>
       </c>
@@ -9066,7 +9072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="2" t="s">
         <v>26</v>
       </c>
@@ -9077,7 +9083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
         <v>71</v>
       </c>
@@ -9088,7 +9094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="2" t="s">
         <v>72</v>
       </c>
@@ -9099,7 +9105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="2" t="s">
         <v>290</v>
       </c>
@@ -9110,7 +9116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="2" t="s">
         <v>73</v>
       </c>
@@ -9121,7 +9127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
         <v>74</v>
       </c>
@@ -9132,7 +9138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207" s="2" t="s">
         <v>75</v>
       </c>
@@ -9143,7 +9149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
         <v>76</v>
       </c>
@@ -9154,7 +9160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
         <v>77</v>
       </c>
@@ -9165,7 +9171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210" s="2" t="s">
         <v>322</v>
       </c>
@@ -9176,7 +9182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
         <v>325</v>
       </c>
@@ -9187,7 +9193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212" s="2" t="s">
         <v>27</v>
       </c>
@@ -9198,7 +9204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
         <v>400</v>
       </c>
@@ -9209,7 +9215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
         <v>401</v>
       </c>
@@ -9220,7 +9226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
         <v>402</v>
       </c>
@@ -9231,7 +9237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216" s="2" t="s">
         <v>403</v>
       </c>
@@ -9242,7 +9248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
         <v>326</v>
       </c>
@@ -9253,7 +9259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" s="2" t="s">
         <v>327</v>
       </c>
@@ -9264,7 +9270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" s="2" t="s">
         <v>329</v>
       </c>
@@ -9275,7 +9281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
         <v>405</v>
       </c>
@@ -9286,7 +9292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
         <v>407</v>
       </c>
@@ -9297,7 +9303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
         <v>408</v>
       </c>
@@ -9308,7 +9314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
         <v>410</v>
       </c>
@@ -9319,7 +9325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
         <v>330</v>
       </c>
@@ -9330,7 +9336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
         <v>331</v>
       </c>
@@ -9341,7 +9347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
         <v>332</v>
       </c>
@@ -9352,7 +9358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" s="2" t="s">
         <v>333</v>
       </c>
@@ -9363,7 +9369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228" s="2" t="s">
         <v>334</v>
       </c>
@@ -9374,7 +9380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229" s="2" t="s">
         <v>335</v>
       </c>
@@ -9385,7 +9391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230" s="2" t="s">
         <v>336</v>
       </c>
@@ -9396,7 +9402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231" s="2" t="s">
         <v>337</v>
       </c>
@@ -9407,7 +9413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" s="2" t="s">
         <v>215</v>
       </c>
@@ -9419,10 +9425,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C232" xr:uid="{E9D14628-70AC-A54A-B0FF-AB42E0DFE12B}"/>
+  <autoFilter ref="A1:C232"/>
   <sortState ref="A2:L232">
     <sortCondition ref="A2:A232"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>